--- a/master_data.xlsx
+++ b/master_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerem\Desktop\freetalkeasy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4159BBDE-AF2E-4F5C-92DC-1DB1F2FADEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562596D8-41E9-4D34-BB26-674106059BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,9 +93,6 @@
     <t>二 (yi6)</t>
   </si>
   <si>
-    <t>二 (ni)</t>
-  </si>
-  <si>
     <t>이 (i)</t>
   </si>
   <si>
@@ -604,6 +601,47 @@
   </si>
   <si>
     <t>廣東</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>二</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,6 +682,27 @@
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -683,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
@@ -692,6 +751,9 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -977,10 +1039,10 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -999,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1008,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1037,7 +1099,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1066,10 +1128,10 @@
         <v>18</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1088,14 +1150,14 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1109,22 +1171,22 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1138,22 +1200,22 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="I6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -1167,22 +1229,22 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1196,22 +1258,22 @@
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1225,22 +1287,22 @@
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1254,22 +1316,22 @@
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="I10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1283,22 +1345,22 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1312,22 +1374,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1338,25 +1400,25 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1367,25 +1429,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1396,25 +1458,25 @@
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="I15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1425,25 +1487,25 @@
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1454,25 +1516,25 @@
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1483,25 +1545,25 @@
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1512,25 +1574,25 @@
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1541,25 +1603,25 @@
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1570,25 +1632,25 @@
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1599,25 +1661,25 @@
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -1628,25 +1690,25 @@
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1657,25 +1719,25 @@
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="I24" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -1686,25 +1748,25 @@
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="I25" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1715,25 +1777,25 @@
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1744,25 +1806,25 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1773,25 +1835,25 @@
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1802,25 +1864,25 @@
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="I29" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1831,25 +1893,25 @@
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1860,25 +1922,25 @@
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
